--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1841584.792393287</v>
+        <v>1839208.165445922</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>267.7132903626189</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.1205759320732</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>106.4659534935673</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>20.20520580535267</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>304.263862817123</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.76150183011045</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>196.4017961483597</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.0424133190815</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>53.43995086960428</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>226.9686834372092</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>19.68350351218334</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>185.8117135907289</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>123.981557645677</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>38.37250637580689</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272891</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>166.3208822291519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>29.249233057517</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>55.30088041042054</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>42.53134576113629</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>139.511541534052</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.703916880933</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.9868975105686</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,10 +3478,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>251.2117044543504</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,10 +3715,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362927</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>93.40444476188321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1488.368453810659</v>
+        <v>1146.918698535759</v>
       </c>
       <c r="C2" t="n">
-        <v>1488.368453810659</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D2" t="n">
-        <v>1130.102755203908</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E2" t="n">
-        <v>744.3145026056641</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>333.3285978160565</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>321.6642515807495</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.507785786471</v>
+        <v>1537.058030511571</v>
       </c>
       <c r="Y2" t="n">
-        <v>1488.368453810659</v>
+        <v>1146.918698535759</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4416,19 +4416,19 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>514.036292340028</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C4" t="n">
-        <v>514.036292340028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1528.904752909277</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1528.904752909277</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1239.786415413115</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>985.1019272072283</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="W4" t="n">
-        <v>695.6847571702677</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="X4" t="n">
-        <v>695.6847571702677</v>
+        <v>549.7445279085429</v>
       </c>
       <c r="Y4" t="n">
-        <v>695.6847571702677</v>
+        <v>549.7445279085429</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>832.1627361996682</v>
+        <v>747.626661887866</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>747.626661887866</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4568,10 +4568,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,7 +4583,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2522.176195238428</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2313.430553844252</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2313.430553844252</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1982.367666500681</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.367666500681</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X5" t="n">
-        <v>1608.901908239602</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1218.76257626379</v>
+        <v>1134.226501951988</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4635,37 +4635,37 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
         <v>199.1598801503962</v>
@@ -4723,25 +4723,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>638.3033838959707</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>410.3138329979533</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.87310169792</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C8" t="n">
-        <v>813.9105847575083</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>520.9312851968499</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>105.2265349211388</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>105.2265349211388</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4808,7 +4808,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2333.078031998934</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1959.612273737853</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1569.472941762042</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2467865680031</v>
+        <v>388.804194412387</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.8680114844801</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.8680114844801</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.8680114844801</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.779039682638</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>971.0945514767509</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6773814397902</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6878305417729</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>570.4526592426267</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400703</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="D19" t="n">
-        <v>382.4184417036842</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>378.6527890600096</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>231.7628415620992</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>231.7628415620992</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851662</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572593</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.356899915406</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438179</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
         <v>402.7245934908938</v>
@@ -6850,58 +6850,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6929,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191924</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.067041434951</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.043492616109</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038323</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245714</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>776.17510664033</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266882</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797186</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1732.088140170819</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637304</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7713,40 +7713,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191924</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349512</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597624</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578601</v>
@@ -7801,13 +7801,13 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797747</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8064,22 +8064,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>224.3355197601777</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>21.18099370047543</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>24.63391537253533</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.0027403343148</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>63.36835372228708</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856722</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>119.3662399606954</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>84.99383243580334</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>106.0841272570761</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>84.99383243580198</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711618</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.59775584152624</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>34.97276993489371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823108</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345295142</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>15.8825942891924</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038563</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>897069.5431855376</v>
+        <v>897069.5431855377</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>897069.5431855376</v>
+        <v>897069.5431855377</v>
       </c>
     </row>
     <row r="5">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>875001.9222469045</v>
+        <v>875001.9222469043</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
@@ -26430,34 +26430,34 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731988</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731984</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731986</v>
+        <v>8117.312426731939</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731942</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732002</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732025</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732039</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-787804.3616192364</v>
       </c>
       <c r="C6" t="n">
-        <v>326947.4219566829</v>
+        <v>326947.4219566828</v>
       </c>
       <c r="D6" t="n">
-        <v>326947.4219566829</v>
+        <v>326947.421956683</v>
       </c>
       <c r="E6" t="n">
-        <v>-71901.32908443102</v>
+        <v>-71936.06700986643</v>
       </c>
       <c r="F6" t="n">
-        <v>435584.112540115</v>
+        <v>435549.3746146791</v>
       </c>
       <c r="G6" t="n">
-        <v>435584.1125401148</v>
+        <v>435549.3746146795</v>
       </c>
       <c r="H6" t="n">
-        <v>435584.1125401147</v>
+        <v>435549.374614679</v>
       </c>
       <c r="I6" t="n">
-        <v>435584.1125401151</v>
+        <v>435549.3746146791</v>
       </c>
       <c r="J6" t="n">
-        <v>267978.9347301323</v>
+        <v>267944.1968046966</v>
       </c>
       <c r="K6" t="n">
-        <v>435584.1125401148</v>
+        <v>435549.374614679</v>
       </c>
       <c r="L6" t="n">
-        <v>435584.1125401153</v>
+        <v>435549.374614679</v>
       </c>
       <c r="M6" t="n">
-        <v>302976.8188111882</v>
+        <v>302942.0808857525</v>
       </c>
       <c r="N6" t="n">
-        <v>435584.1125401148</v>
+        <v>435549.3746146796</v>
       </c>
       <c r="O6" t="n">
-        <v>435584.1125401148</v>
+        <v>435549.374614679</v>
       </c>
       <c r="P6" t="n">
-        <v>435584.1125401147</v>
+        <v>435549.374614679</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>33.30526219978651</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>263.6105247463958</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>88.19650686817016</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>205.5044495836845</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50.41917880355999</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>83.69071356868392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,16 +27822,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>55.73584717546831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.542240033013258</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>12.26996180286621</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>122.2722852802038</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>125.7375445107479</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>100.4154405304718</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,19 +31835,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32561,7 +32561,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>526.2989357561996</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478645</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806724</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,34 +33974,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,31 +34214,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>253.6713445158004</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34448,28 +34448,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34784,22 +34784,22 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>615.5326193530516</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>356.6056756965984</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>553.380344896426</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9572236728663</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899063</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875412</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409633</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318053</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>122.3296324324671</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
